--- a/2025_DSAIML_Gen/01 Tableau And Excel/2026_01_17.xlsx
+++ b/2025_DSAIML_Gen/01 Tableau And Excel/2026_01_17.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\2025_DSAIML_Gen\01 Tableau And Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5F3E30-B991-4FF9-BFE0-94DAC0EF1C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16A9429-E934-4EB8-931F-26968BFAC856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flashfill and concat" sheetId="2" r:id="rId1"/>
     <sheet name="logical operators and text fn" sheetId="3" r:id="rId2"/>
     <sheet name="Data Validation" sheetId="4" r:id="rId3"/>
+    <sheet name="Population" sheetId="5" r:id="rId4"/>
+    <sheet name="Per Capita Income" sheetId="6" r:id="rId5"/>
+    <sheet name="HLookup &amp; Transpose" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="134">
   <si>
     <t>First Name</t>
   </si>
@@ -282,13 +285,160 @@
   </si>
   <si>
     <t>Temperature:</t>
+  </si>
+  <si>
+    <t>Seats:</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Panth</t>
+  </si>
+  <si>
+    <t>Sutaria</t>
+  </si>
+  <si>
+    <t>STD Code</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Avg. Literacy</t>
+  </si>
+  <si>
+    <t>Male Literacy</t>
+  </si>
+  <si>
+    <t>Female Literacy</t>
+  </si>
+  <si>
+    <t>Ahmedabad</t>
+  </si>
+  <si>
+    <t>Surat</t>
+  </si>
+  <si>
+    <t>Patan</t>
+  </si>
+  <si>
+    <t>Rajkot</t>
+  </si>
+  <si>
+    <t>Disa</t>
+  </si>
+  <si>
+    <t>Palanpur</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>VLOOKUP Exercise</t>
+  </si>
+  <si>
+    <t>Avg.Literacy</t>
+  </si>
+  <si>
+    <t>Match Function</t>
+  </si>
+  <si>
+    <t>Index Function</t>
+  </si>
+  <si>
+    <t>Row Number</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Column No</t>
+  </si>
+  <si>
+    <t>Col Number</t>
+  </si>
+  <si>
+    <t>Row No.</t>
+  </si>
+  <si>
+    <t>Col No.</t>
+  </si>
+  <si>
+    <t>Answer:</t>
+  </si>
+  <si>
+    <t>Enter City Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Direct Value</t>
+  </si>
+  <si>
+    <t>Using VLOOKUP &amp; Match</t>
+  </si>
+  <si>
+    <t>Match Does not take 2D arrays!!</t>
+  </si>
+  <si>
+    <t>Row No. of the city:</t>
+  </si>
+  <si>
+    <t>Col No. of the parameter:</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>SR Tendulkar</t>
+  </si>
+  <si>
+    <t>V Sehwag</t>
+  </si>
+  <si>
+    <t>V Kohli</t>
+  </si>
+  <si>
+    <t>Matches</t>
+  </si>
+  <si>
+    <t>100's</t>
+  </si>
+  <si>
+    <t>50's</t>
+  </si>
+  <si>
+    <t>6's</t>
+  </si>
+  <si>
+    <t>4's</t>
+  </si>
+  <si>
+    <t>4s</t>
+  </si>
+  <si>
+    <t>Batsman</t>
+  </si>
+  <si>
+    <t>Row No:</t>
+  </si>
+  <si>
+    <t>Direct</t>
+  </si>
+  <si>
+    <t>Transpose is not possible with Table!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,8 +454,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,8 +501,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDC3939"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -398,11 +611,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -414,22 +647,97 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E2F3"/>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E2F3"/>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Question Hlookupworked-style" pivot="0" count="3" xr9:uid="{E96F9BBD-C3BC-4949-8FBB-8307F55AA3C4}">
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -439,6 +747,33 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D610B25-9222-4915-8905-66B630124ABB}" name="Table_57" displayName="Table_57" ref="B3:E8" headerRowDxfId="0">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8B87CA8A-8AFB-4A1F-8450-8F177CA4A5B3}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{AB8364BE-E65C-42AE-886E-138FF32B3111}" name="SR Tendulkar"/>
+    <tableColumn id="3" xr3:uid="{24A96B9E-119B-4A4E-8F83-C264C55546C2}" name="V Sehwag"/>
+    <tableColumn id="4" xr3:uid="{2203989B-53D4-4E60-8436-C17667F73918}" name="V Kohli"/>
+  </tableColumns>
+  <tableStyleInfo name="Question Hlookupworked-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0FE8E5C0-9F68-4B90-A1D2-A6A2754E07F2}" name="Table2" displayName="Table2" ref="H9:M12" totalsRowShown="0">
+  <autoFilter ref="H9:M12" xr:uid="{EAD0F362-63BC-4D1D-9197-A457E6C21B84}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{ABCB50FA-67C5-47D5-8EDA-CF19772D1CFE}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{81C3F9E9-9559-40C5-B53E-909D7E283984}" name="Matches"/>
+    <tableColumn id="3" xr3:uid="{F9F66F5B-D8C6-415D-8410-F6C70DFAEA40}" name="100's"/>
+    <tableColumn id="4" xr3:uid="{2E8E776A-E3F2-4C68-A112-32661C9C08AB}" name="50's"/>
+    <tableColumn id="5" xr3:uid="{1DD8A687-C5FD-4A04-A80A-F441CED0F25A}" name="6's"/>
+    <tableColumn id="6" xr3:uid="{95AAB3D9-A6A1-4FA7-AE5A-C341CDC66148}" name="4's"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -704,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5363889-81DF-41A4-B72F-02DB3B3151F4}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,7 +1111,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C11" si="0">_xlfn.CONCAT(A3, " ", B3)</f>
+        <f t="shared" ref="C3:C12" si="0">_xlfn.CONCAT(A3, " ", B3)</f>
         <v>Ayush Sheth</v>
       </c>
       <c r="D3" t="s">
@@ -1045,6 +1380,18 @@
       <c r="J11" t="str">
         <f t="shared" si="1"/>
         <v>Hi Ajay!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>Panth Sutaria</v>
       </c>
     </row>
   </sheetData>
@@ -1094,18 +1441,18 @@
       <c r="A2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2525,7 +2872,7 @@
       </c>
       <c r="E27" s="4">
         <f ca="1">NOW()</f>
-        <v>46040.626577430558</v>
+        <v>46052.786123032405</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2578,137 +2925,159 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B6739A-365B-4F64-ABAC-C7B124E5B7E8}">
-  <dimension ref="B2:E16"/>
+  <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.21875" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>500000</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>-5</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11">
+        <v>50</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="11">
+        <v>10</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="11">
+        <f>D13/D14</f>
+        <v>5</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="11">
+        <f>IFERROR(D13/D14, "Something went wrong")</f>
+        <v>5</v>
+      </c>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
   </mergeCells>
-  <dataValidations count="3">
+  <dataValidations count="5">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Positive Integers Only!" error="Quantity cannot be negative, zero or decimal number..." sqref="D3" xr:uid="{EC04AE86-87E1-476C-971A-5203AB11146B}">
       <formula1>0</formula1>
     </dataValidation>
@@ -2719,7 +3088,948 @@
     <dataValidation type="decimal" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Negative Temperature..." error="You are entering negative temperature!" sqref="D5" xr:uid="{685E05B1-2080-4EA8-80CF-1A0C23053EAB}">
       <formula1>0</formula1>
     </dataValidation>
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Negative Temperature..." error="You are entering negative temperature!" promptTitle="Attention!!" prompt="Please enter a whole number from 1 to 6 only (including both)..." sqref="D6" xr:uid="{409E0983-5EA0-4CCC-A2F7-44CCD6B739AB}">
+      <formula1>1</formula1>
+      <formula2>6</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7" xr:uid="{2CA702AB-4D66-406F-B7B2-961F704A44B2}">
+      <formula1>"Mon, Tue, Wed, Thu, Fri, Sat, Sun"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D6696467-5D4C-4BD9-B5AA-CFBF5411B08C}">
+          <x14:formula1>
+            <xm:f>'flashfill and concat'!$A$2:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>D8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9043636-8393-4392-8610-4AC6251FCA53}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2">
+        <v>86</v>
+      </c>
+      <c r="D2">
+        <v>68.7</v>
+      </c>
+      <c r="E2">
+        <v>64.8</v>
+      </c>
+      <c r="F2">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>261</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>60.5</v>
+      </c>
+      <c r="E3">
+        <v>62</v>
+      </c>
+      <c r="F3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2766</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>72.3</v>
+      </c>
+      <c r="E4">
+        <v>82.9</v>
+      </c>
+      <c r="F4">
+        <v>61.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>281</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5">
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <v>52.2</v>
+      </c>
+      <c r="E5">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="F5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2744</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>68.8</v>
+      </c>
+      <c r="E6">
+        <v>55.8</v>
+      </c>
+      <c r="F6">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2742</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>1.5</v>
+      </c>
+      <c r="D7">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="E7">
+        <v>75</v>
+      </c>
+      <c r="F7">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018DD77E-737B-4430-9FD5-6A3F1BCA1BA2}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2">
+        <v>2590</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP($A2, Population!$B$2:$F$7, 3,FALSE)</f>
+        <v>68.7</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP(A2, Population!B2:F7, 2, FALSE)</f>
+        <v>86</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP($A2, Population!$B$2:$F$7, 5, FALSE)</f>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3">
+        <v>3196</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP($A3, Population!$B$2:$F$7, 3,FALSE)</f>
+        <v>68.8</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP($A3, Population!$B$2:$F$7, 5, FALSE)</f>
+        <v>65.3</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>2400</v>
+      </c>
+      <c r="C4">
+        <f>VLOOKUP($A4, Population!$B$2:$F$7, 3,FALSE)</f>
+        <v>64.900000000000006</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP($A4, Population!$B$2:$F$7, 5, FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5">
+        <v>2530</v>
+      </c>
+      <c r="C5">
+        <f>VLOOKUP($A5, Population!$B$2:$F$7, 3,FALSE)</f>
+        <v>72.3</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP($A5, Population!$B$2:$F$7, 5, FALSE)</f>
+        <v>61.05</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="11">
+        <f>IFERROR(VLOOKUP(K4, A2:E7, 2, FALSE), "Select a valid city")</f>
+        <v>2850</v>
+      </c>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6">
+        <v>2900</v>
+      </c>
+      <c r="C6">
+        <f>VLOOKUP($A6, Population!$B$2:$F$7, 3,FALSE)</f>
+        <v>52.2</v>
+      </c>
+      <c r="E6">
+        <f>VLOOKUP($A6, Population!$B$2:$F$7, 5, FALSE)</f>
+        <v>72</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="11">
+        <f>VLOOKUP(K4, A2:E7, 3, FALSE)</f>
+        <v>60.5</v>
+      </c>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7">
+        <v>2850</v>
+      </c>
+      <c r="C7">
+        <f>VLOOKUP($A7, Population!$B$2:$F$7, 3,FALSE)</f>
+        <v>60.5</v>
+      </c>
+      <c r="E7">
+        <f>VLOOKUP($A7, Population!$B$2:$F$7, 5, FALSE)</f>
+        <v>61</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="11">
+        <f>VLOOKUP(K4, A2:E7, 4, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="11">
+        <f>VLOOKUP(K4, A2:E7, 5, FALSE)</f>
+        <v>61</v>
+      </c>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="E11" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f>MATCH("Patan", A2:A7, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="14">
+        <f>MATCH(C12, A2:A7, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="14" t="str">
+        <f>INDEX(A2:A7, G12)</f>
+        <v>Disa</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f>MATCH("Female Literacy", A1:F1, 0)</f>
+        <v>5</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="14">
+        <f>MATCH(C15, A1:F1, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="14" t="str">
+        <f>INDEX(A1:F1,  1, G15)</f>
+        <v>City</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="e">
+        <f>MATCH(52.2, A1:F7, 0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="F18" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="F19" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F20" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="14" t="str">
+        <f>INDEX(A1:E7, G18, G19)</f>
+        <v>Disa</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="25">
+        <f>MATCH(C25, A1:A7, 0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="25">
+        <f>MATCH(C26, A1:E1, 0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="17">
+        <f>INDEX(A1:E7, F25, F26)</f>
+        <v>2590</v>
+      </c>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="18">
+        <f>INDEX(A1:E7, MATCH(C25, A1:A7, 0), MATCH(C26, A1:E1, 0))</f>
+        <v>2590</v>
+      </c>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="19">
+        <f>VLOOKUP(C25, A1:E7, MATCH(C26, A1:E1, 0))</f>
+        <v>2590</v>
+      </c>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4 C12 C25" xr:uid="{C625E0D3-C9E6-4173-9018-442DD0F754C8}">
+      <formula1>$A$2:$A$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{7D1D6BF6-E0A9-436B-8B21-2E83FAA53E2C}">
+      <formula1>$A$1:$F$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26" xr:uid="{658AF4F8-1963-466B-B745-66F8288AEB60}">
+      <formula1>$B$1:$E$1</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFDE20A-E94F-4301-AED1-0997A9C185BB}">
+  <dimension ref="B3:R14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="10.44140625" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="27">
+        <v>200</v>
+      </c>
+      <c r="D4" s="27">
+        <v>97</v>
+      </c>
+      <c r="E4" s="27">
+        <v>98</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="11">
+        <v>200</v>
+      </c>
+      <c r="J4" s="11">
+        <v>20</v>
+      </c>
+      <c r="K4" s="11">
+        <v>32</v>
+      </c>
+      <c r="L4" s="11">
+        <v>100</v>
+      </c>
+      <c r="M4" s="11">
+        <v>125</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" s="11">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>97</v>
+      </c>
+      <c r="R4" s="11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="27">
+        <v>20</v>
+      </c>
+      <c r="D5" s="27">
+        <v>22</v>
+      </c>
+      <c r="E5" s="27">
+        <v>21</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="11">
+        <v>97</v>
+      </c>
+      <c r="J5" s="11">
+        <v>22</v>
+      </c>
+      <c r="K5" s="11">
+        <v>35</v>
+      </c>
+      <c r="L5" s="11">
+        <v>25</v>
+      </c>
+      <c r="M5" s="11">
+        <v>20</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="P5" s="11">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>22</v>
+      </c>
+      <c r="R5" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="27">
+        <v>32</v>
+      </c>
+      <c r="D6" s="27">
+        <v>35</v>
+      </c>
+      <c r="E6" s="27">
+        <v>25</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="11">
+        <v>98</v>
+      </c>
+      <c r="J6" s="11">
+        <v>21</v>
+      </c>
+      <c r="K6" s="11">
+        <v>25</v>
+      </c>
+      <c r="L6" s="11">
+        <v>54</v>
+      </c>
+      <c r="M6" s="11">
+        <v>14</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="P6" s="11">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>35</v>
+      </c>
+      <c r="R6" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="27">
+        <v>100</v>
+      </c>
+      <c r="D7" s="27">
+        <v>25</v>
+      </c>
+      <c r="E7" s="27">
+        <v>54</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="P7" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>25</v>
+      </c>
+      <c r="R7" s="11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="27">
+        <v>125</v>
+      </c>
+      <c r="D8" s="27">
+        <v>20</v>
+      </c>
+      <c r="E8" s="27">
+        <v>14</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="P8" s="11">
+        <v>125</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>20</v>
+      </c>
+      <c r="R8" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12">
+        <f>MATCH(C12, Table_57[[#All],[Name]], 0)</f>
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="29">
+        <f>HLOOKUP(C11, Table_57[[#All],[SR Tendulkar]:[V Kohli]], F12, FALSE)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="29">
+        <f>HLOOKUP(C11, Table_57[[#All],[SR Tendulkar]:[V Kohli]], MATCH(C12, Table_57[[#All],[Name]], 0), FALSE)</f>
+        <v>98</v>
+      </c>
+      <c r="H14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{5A770EDA-DD3A-40B4-897E-1E44083D1492}">
+      <formula1>$C$3:$E$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{22441353-D97A-4528-91A8-C1F1F0F02608}">
+      <formula1>$B$4:$B$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>